--- a/Glasbruecke_Spalt_Main/Glasbruecke_data.xlsx
+++ b/Glasbruecke_Spalt_Main/Glasbruecke_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern/Documents/Universität Rostock/Sonstiges/Glasbruecke_spalt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern_hzdr/Documents/GitHub/Glasbruecke_Institut_Physik_Rostock/Glasbruecke_Spalt_Main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2824B5-2AAB-1F40-ADE6-A46190A81F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C9C626-2BF8-8C46-8E4D-B5DC3B123A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12720" windowHeight="17500" xr2:uid="{8EA200BE-1066-834C-918B-2BEB0EDEA881}"/>
+    <workbookView xWindow="33320" yWindow="500" windowWidth="31820" windowHeight="20320" activeTab="1" xr2:uid="{8EA200BE-1066-834C-918B-2BEB0EDEA881}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -175,6 +181,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Korrekturterm für unkalibrierte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Temp. Messungen: Faktor: T' = a*T</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -227,10 +263,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$E$2:$E$8</c:f>
+              <c:f>Tabelle2!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.1884816753926701</c:v>
                 </c:pt>
@@ -251,6 +287,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.1647727272727271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1067415730337078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1294117647058823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.16875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1779141104294477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0823529411764705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1840490797546013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1515151515151516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1061452513966481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.053475935828877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,10 +348,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$F$2:$F$8</c:f>
+              <c:f>Tabelle2!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.1758241758241759</c:v>
                 </c:pt>
@@ -303,6 +372,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2658227848101264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2124999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2171052631578947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.267605633802817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2348993288590602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2133333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1779141104294477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,6 +435,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Messungen</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [1]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -380,6 +542,8 @@
         <c:axId val="1790440176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -397,6 +561,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Temperaturkorrektur [1]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -473,6 +692,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -480,7 +700,602 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Korrekturterm für unkalibrierte Temp. Messungen: Addition: T' = T+ a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB36-6047-A810-A4B6D8699FD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB36-6047-A810-A4B6D8699FD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="655886256"/>
+        <c:axId val="655887968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655886256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Messung [1]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655887968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655887968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zusätzliche Temperaturterm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [K]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655886256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -555,6 +1370,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1071,20 +1926,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1109,13 +2480,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C383FC-F32C-72E9-9DBE-C82D4B01F2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1153,7 +2560,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1259,7 +2666,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1401,7 +2808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1409,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DF3E8-761C-B749-991E-D722927518DD}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,6 +4588,32 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="C68" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="D68" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="E68" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="F68" s="4">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3188,15 +4621,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1706ED-B581-D947-89D7-ACAB610CBC9A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3215,8 +4648,14 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>19.100000000000001</v>
       </c>
@@ -3237,8 +4676,16 @@
         <f>D2/B2</f>
         <v>1.1758241758241759</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <f>C2-A2</f>
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="H2" s="4">
+        <f>D2-B2</f>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>19.399999999999999</v>
       </c>
@@ -3252,15 +4699,23 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">C3/A3</f>
+        <f t="shared" ref="E3:E19" si="0">C3/A3</f>
         <v>1.061855670103093</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="1">D3/B3</f>
+        <f t="shared" ref="F3:F19" si="1">D3/B3</f>
         <v>1.0982658959537572</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:H19" si="2">C3-A3</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>18.399999999999999</v>
       </c>
@@ -3281,8 +4736,16 @@
         <f t="shared" si="1"/>
         <v>1.2545454545454544</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>18.600000000000001</v>
       </c>
@@ -3303,8 +4766,16 @@
         <f t="shared" si="1"/>
         <v>1.223529411764706</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>18.899999999999999</v>
       </c>
@@ -3325,8 +4796,16 @@
         <f t="shared" si="1"/>
         <v>1.2138728323699421</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>18.5</v>
       </c>
@@ -3347,8 +4826,16 @@
         <f t="shared" si="1"/>
         <v>1.1744186046511629</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>17.600000000000001</v>
       </c>
@@ -3368,6 +4855,344 @@
       <c r="F8">
         <f t="shared" si="1"/>
         <v>1.2658227848101264</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>19.7</v>
+      </c>
+      <c r="D9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1067415730337078</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.2124999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="C10">
+        <v>19.2</v>
+      </c>
+      <c r="D10">
+        <v>18.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.1294117647058823</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.2171052631578947</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="C11">
+        <v>18.7</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.16875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.267605633802817</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.2348993288590602</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4999999999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>19.2</v>
+      </c>
+      <c r="D13">
+        <v>18.2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.1779141104294477</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.2133333333333334</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>17.7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.0823529411764705</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>19.3</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.1840490797546013</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.1515151515151516</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
+      </c>
+      <c r="D17">
+        <v>19.3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.1061452513966481</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.20625</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+      <c r="D18">
+        <v>19.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.1222222222222222</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.1470588235294117</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="C19">
+        <v>19.7</v>
+      </c>
+      <c r="D19">
+        <v>19.2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.053475935828877</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.1779141104294477</v>
+      </c>
+      <c r="G19" s="4">
+        <f>C19-A19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999986</v>
       </c>
     </row>
   </sheetData>
